--- a/30 s/statique_sol.xlsx
+++ b/30 s/statique_sol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>nom_fichier</t>
   </si>
@@ -45,115 +45,118 @@
     <t>gap</t>
   </si>
   <si>
+    <t>                              </t>
+  </si>
+  <si>
+    <t>                                                                                                                                                                                                        </t>
+  </si>
+  <si>
     <t>10_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>[1, 5, 8][2, 3, 4][6, 7, 9,...</t>
+    <t>54.354823587721164</t>
+  </si>
+  <si>
+    <t>[1, 5, 8][2, 3, 4][6, 7, 9, 10]</t>
   </si>
   <si>
     <t>10_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>[4][5][2, 3][6, 7][9, 10][1...</t>
+    <t>7.22199614222636</t>
+  </si>
+  <si>
+    <t>[4][5][2, 3][6, 7][9, 10][1, 8]</t>
   </si>
   <si>
     <t>10_ulysses_9.tsp</t>
   </si>
   <si>
-    <t>[3][9][1, 8][4][2][6][7][10...</t>
+    <t>0.7202777242147631</t>
+  </si>
+  <si>
+    <t>[3][9][1, 8][4][2][6][7][10][5]</t>
   </si>
   <si>
     <t>14_burma_3.tsp</t>
   </si>
   <si>
-    <t>[3, 4, 12, 14][5, 6, 7, 13]...</t>
+    <t>66.21374551350527</t>
+  </si>
+  <si>
+    <t>[3, 4, 12, 14][5, 6, 7, 13][1, 2, 8, 9, 10, 11]</t>
   </si>
   <si>
     <t>14_burma_6.tsp</t>
   </si>
   <si>
-    <t>[1, 2, 8][9, 10, 11][5][3, ...</t>
+    <t>17.962247641471908</t>
+  </si>
+  <si>
+    <t>[1, 2, 8][9, 10, 11][5][3, 4][7, 13][6, 12, 14]</t>
   </si>
   <si>
     <t>14_burma_9.tsp</t>
   </si>
   <si>
-    <t>[1, 8][3, 14][2][7, 13][4][...</t>
+    <t>4.724843955442653</t>
+  </si>
+  <si>
+    <t>[1, 8][3, 14][2][7, 13][4][5][10][6, 12][9, 11]</t>
   </si>
   <si>
     <t>22_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>[7, 10, 12, 13, 14, 19, 20,...</t>
+    <t>284.2098066855361</t>
+  </si>
+  <si>
+    <t>[7, 10, 12, 13, 14, 19, 20, 21][5, 6, 9, 11, 15][1, 2, 3, 4, 8, 16, 17, 18, 22]</t>
   </si>
   <si>
     <t>22_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>[7, 12, 13, 14][2, 3, 4, 17...</t>
-  </si>
-  <si>
-    <t>100_kroA_3.tsp</t>
-  </si>
-  <si>
-    <t>[1, 4, 10, 17, 18, 19, 21, ...</t>
-  </si>
-  <si>
-    <t>100_kroA_6.tsp</t>
-  </si>
-  <si>
-    <t>[3, 7, 9, 12, 14, 20, 27, 3...</t>
-  </si>
-  <si>
-    <t>100_kroA_9.tsp</t>
-  </si>
-  <si>
-    <t>[33, 36, 40, 84, 96][10, 11...</t>
-  </si>
-  <si>
-    <t>202_gr_3.tsp</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9,...</t>
-  </si>
-  <si>
-    <t>202_gr_6.tsp</t>
-  </si>
-  <si>
-    <t>202_gr_9.tsp</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10...</t>
-  </si>
-  <si>
-    <t>318_lin_3.tsp</t>
-  </si>
-  <si>
-    <t>318_lin_6.tsp</t>
-  </si>
-  <si>
-    <t>318_lin_9.tsp</t>
-  </si>
-  <si>
-    <t>400_rd_3.tsp</t>
-  </si>
-  <si>
-    <t>400_rd_6.tsp</t>
-  </si>
-  <si>
-    <t>[9, 17, 19, 32, 38, 45, 48,...</t>
-  </si>
-  <si>
-    <t>400_rd_9.tsp</t>
-  </si>
-  <si>
-    <t>532_att_3.tsp</t>
-  </si>
-  <si>
-    <t>532_att_6.tsp</t>
-  </si>
-  <si>
-    <t>532_att_9.tsp</t>
+    <t>82.6309678494024</t>
+  </si>
+  <si>
+    <t>[7, 12, 13, 14][2, 3, 4, 17, 18][10, 19, 20, 21][5, 6, 15][9, 11][1, 8, 16, 22]</t>
+  </si>
+  <si>
+    <t>22_ulysses_9.tsp</t>
+  </si>
+  <si>
+    <t>26.217229233402662</t>
+  </si>
+  <si>
+    <t>[2, 3, 17][9][10, 19, 20, 21][1, 8, 16][6, 7][11][5, 15][12, 13, 14][4, 18, 22]</t>
+  </si>
+  <si>
+    <t>26_eil_3.tsp</t>
+  </si>
+  <si>
+    <t>1850.4196829498164</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 9, 11, 16, 20, 21, 22][4, 5, 10, 12, 13, 15, 17, 18, 19][6, 7, 8, 14, 23, 24, 25, 26]</t>
+  </si>
+  <si>
+    <t>26_eil_6.tsp</t>
+  </si>
+  <si>
+    <t>648.8331856019674</t>
+  </si>
+  <si>
+    <t>[9, 10, 11, 16, 21][4, 13, 15, 19][1, 2, 3, 20, 22][5, 6, 12, 17][14, 18, 24, 25][7, 8, 23, 26]</t>
+  </si>
+  <si>
+    <t>26_eil_9.tsp</t>
+  </si>
+  <si>
+    <t>336.7240444760563</t>
+  </si>
+  <si>
+    <t>[9, 10, 11][14, 24, 25][7, 8, 26][13, 18][4, 5, 12][15, 17, 19][1, 6, 23][3, 20, 22][2, 16, 21]</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,16 +539,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.059999942779541016</v>
-      </c>
-      <c r="C2">
-        <v>54.354823587721164</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>54.354823587721164</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
         <v>0.0</v>
@@ -556,16 +559,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.10299992561340332</v>
-      </c>
-      <c r="C3">
-        <v>7.22199614222636</v>
+        <v>3.921</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>7.22199614222636</v>
+        <v>54.354823587721164</v>
       </c>
       <c r="F3">
         <v>0.0</v>
@@ -573,19 +576,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.10400009155273438</v>
-      </c>
-      <c r="C4">
-        <v>0.7202777242147631</v>
+        <v>0.08899998664855957</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0.7202777242147631</v>
+        <v>7.22199614222636</v>
       </c>
       <c r="F4">
         <v>0.0</v>
@@ -593,19 +596,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.1359999179840088</v>
-      </c>
-      <c r="C5">
-        <v>66.21374551350527</v>
+        <v>0.0820000171661377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>66.21374551350527</v>
+        <v>0.7202777242147631</v>
       </c>
       <c r="F5">
         <v>0.0</v>
@@ -613,19 +616,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>0.17500019073486328</v>
-      </c>
-      <c r="C6">
-        <v>17.962247641471908</v>
+        <v>0.28099989891052246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>17.962247641471908</v>
+        <v>66.21374551350527</v>
       </c>
       <c r="F6">
         <v>0.0</v>
@@ -633,19 +636,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0.29600000381469727</v>
-      </c>
-      <c r="C7">
-        <v>4.724843955442653</v>
+        <v>0.1549999713897705</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>4.724843955442653</v>
+        <v>17.962247641471908</v>
       </c>
       <c r="F7">
         <v>0.0</v>
@@ -653,19 +656,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0.4570000171661377</v>
-      </c>
-      <c r="C8">
-        <v>284.2098066855361</v>
+        <v>0.3339998722076416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>284.2098066855361</v>
+        <v>4.724843955442653</v>
       </c>
       <c r="F8">
         <v>0.0</v>
@@ -673,19 +676,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>6.351000070571899</v>
-      </c>
-      <c r="C9">
-        <v>82.6309678494024</v>
+        <v>1.0490000247955322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>82.6309678494024</v>
+        <v>284.2098066855361</v>
       </c>
       <c r="F9">
         <v>0.0</v>
@@ -693,302 +696,102 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>30.19000005722046</v>
-      </c>
-      <c r="C10">
-        <v>2.1273752538849534e6</v>
+        <v>6.425999879837036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>72286.71491489626</v>
+        <v>82.6309678494024</v>
       </c>
       <c r="F10">
-        <v>0.9660207033136781</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>30.234999895095825</v>
-      </c>
-      <c r="C11">
-        <v>721762.908750965</v>
+        <v>1.933000087738037</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>26.217229233402662</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>30.317000150680542</v>
-      </c>
-      <c r="C12">
-        <v>507717.1595593813</v>
+        <v>14.549000024795532</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>1850.4196829498167</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>30.39299988746643</v>
-      </c>
-      <c r="C13">
-        <v>91062.36056211736</v>
+        <v>30.055999994277954</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>398.6532798375832</v>
       </c>
       <c r="F13">
-        <v>0.9999999999999989</v>
+        <v>0.38558432477869703</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>30.738999843597412</v>
-      </c>
-      <c r="C14">
-        <v>38469.77126226459</v>
+        <v>30.0770001411438</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>190.50990409870275</v>
       </c>
       <c r="F14">
-        <v>0.9999999999999973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>32.592000007629395</v>
-      </c>
-      <c r="C15">
-        <v>19583.118199315264</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>0.999999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>31.1489999294281</v>
-      </c>
-      <c r="C16">
-        <v>2.334288980065994e7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>36.90899991989136</v>
-      </c>
-      <c r="C17">
-        <v>1.1022804750814583e7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>33.36500000953674</v>
-      </c>
-      <c r="C18">
-        <v>5.896963244453926e6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18">
-        <v>0.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>32.52300000190735</v>
-      </c>
-      <c r="C19">
-        <v>1.4652633444680586e7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19">
-        <v>0.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20">
-        <v>33.31599998474121</v>
-      </c>
-      <c r="C20">
-        <v>7.285292419131433e6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>0.0</v>
-      </c>
-      <c r="F20">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>36.58399987220764</v>
-      </c>
-      <c r="C21">
-        <v>5.213853259897364e6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>0.0</v>
-      </c>
-      <c r="F21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>33.401000022888184</v>
-      </c>
-      <c r="C22">
-        <v>1.1324677108318272e8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22">
-        <v>0.0</v>
-      </c>
-      <c r="F22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>37.56100010871887</v>
-      </c>
-      <c r="C23">
-        <v>5.9865293791634575e7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>0.0</v>
-      </c>
-      <c r="F23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>39.771000146865845</v>
-      </c>
-      <c r="C24">
-        <v>3.765235571669109e7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>0.0</v>
-      </c>
-      <c r="F24">
-        <v>1.0</v>
+        <v>0.43422542219941496</v>
       </c>
     </row>
   </sheetData>

--- a/30 s/statique_sol.xlsx
+++ b/30 s/statique_sol.xlsx
@@ -144,19 +144,19 @@
     <t>26_eil_6.tsp</t>
   </si>
   <si>
-    <t>648.8331856019674</t>
-  </si>
-  <si>
-    <t>[9, 10, 11, 16, 21][4, 13, 15, 19][1, 2, 3, 20, 22][5, 6, 12, 17][14, 18, 24, 25][7, 8, 23, 26]</t>
+    <t>653.2227809129797</t>
+  </si>
+  <si>
+    <t>[9, 10, 11, 16, 21][5, 6, 12, 15][2, 3, 20, 22][14, 18, 24, 25][4, 13, 17, 19][1, 7, 8, 23, 26]</t>
   </si>
   <si>
     <t>26_eil_9.tsp</t>
   </si>
   <si>
-    <t>336.7240444760563</t>
-  </si>
-  <si>
-    <t>[9, 10, 11][14, 24, 25][7, 8, 26][13, 18][4, 5, 12][15, 17, 19][1, 6, 23][3, 20, 22][2, 16, 21]</t>
+    <t>327.11275601905356</t>
+  </si>
+  <si>
+    <t>[9, 10, 11][14, 24, 25][7, 8, 26][13, 19][5, 12, 18][4, 15, 17][1, 6, 23][3, 20, 22][2, 16, 21]</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.921</v>
+        <v>4.183000087738037</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -579,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.08899998664855957</v>
+        <v>0.21000003814697266</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.0820000171661377</v>
+        <v>0.07799983024597168</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -619,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.28099989891052246</v>
+        <v>0.13300013542175293</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -639,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.1549999713897705</v>
+        <v>0.16000008583068848</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -659,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.3339998722076416</v>
+        <v>0.2649998664855957</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>1.0490000247955322</v>
+        <v>0.45399999618530273</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -699,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>6.425999879837036</v>
+        <v>6.743000030517578</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -719,7 +719,7 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>1.933000087738037</v>
+        <v>2.0300002098083496</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>14.549000024795532</v>
+        <v>15.503999948501587</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -759,7 +759,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>30.055999994277954</v>
+        <v>30.073999881744385</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -768,10 +768,10 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>398.6532798375832</v>
+        <v>393.31913285163233</v>
       </c>
       <c r="F13">
-        <v>0.38558432477869703</v>
+        <v>0.39787903247656503</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -788,10 +788,10 @@
         <v>43</v>
       </c>
       <c r="E14">
-        <v>190.50990409870275</v>
+        <v>188.81994477677344</v>
       </c>
       <c r="F14">
-        <v>0.43422542219941496</v>
+        <v>0.422768017136521</v>
       </c>
     </row>
   </sheetData>
